--- a/DOC/基本設計/基本設計_emsm_経費管理New1.xlsx
+++ b/DOC/基本設計/基本設計_emsm_経費管理New1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3958BA2-28B3-409F-8885-10AD7272C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -615,6 +615,45 @@
   </si>
   <si>
     <t>９</t>
+  </si>
+  <si>
+    <t>発生日の項目は日付チェックでは内容を入力された場合</t>
+  </si>
+  <si>
+    <t>”発生日に日付を入力してください”メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>精算日の項目は日付チェックではない内容を入力された場合</t>
+  </si>
+  <si>
+    <t>発生日の項目は日付チェックではない内容を入力された場合</t>
+  </si>
+  <si>
+    <t>”精算日に日付を入力してください”メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>金額の項目は数字ではない内容を入力された場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">”場所の15文字の長さが越えています”メッセージを画面に表示する
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">”備考の15文字の長さが越えています”メッセージを画面に表示する
+</t>
+  </si>
+  <si>
+    <t>発生日の項目は空の場合</t>
+  </si>
+  <si>
+    <t>金額の項目は空の場合</t>
+  </si>
+  <si>
+    <t>場所の項目は空の場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">”備考の30文字の長さが越えています”メッセージを画面に表示する
+</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="623">
+  <cellXfs count="625">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4478,6 +4517,12 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="39" applyFont="1" fillId="0" applyFill="1" borderId="150" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="3" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="3" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5805,7 +5850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="D7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="AC39" sqref="AC39" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -8382,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="Z27" sqref="Z27:Z28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -10920,8 +10965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN37"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AU22" sqref="AU22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12030,7 +12075,7 @@
       </c>
       <c r="T13" s="217"/>
       <c r="U13" s="387" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V13" s="388"/>
       <c r="W13" s="213" t="s">
@@ -12381,8 +12426,8 @@
         <v>98</v>
       </c>
       <c r="T17" s="217"/>
-      <c r="U17" s="502" t="s">
-        <v>111</v>
+      <c r="U17" s="389" t="s">
+        <v>100</v>
       </c>
       <c r="V17" s="503"/>
       <c r="W17" s="213" t="s">
@@ -12472,7 +12517,7 @@
       </c>
       <c r="T18" s="375"/>
       <c r="U18" s="504" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V18" s="505"/>
       <c r="W18" s="376" t="s">
@@ -28831,8 +28876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN17"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="AY23" sqref="AY23" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="V21" sqref="V21:V22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29532,7 +29577,7 @@
       <c r="N8" s="563"/>
       <c r="O8" s="564"/>
       <c r="P8" s="479" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="480"/>
       <c r="R8" s="480"/>
@@ -29607,8 +29652,8 @@
       <c r="M9" s="566"/>
       <c r="N9" s="566"/>
       <c r="O9" s="567"/>
-      <c r="P9" s="534" t="s">
-        <v>145</v>
+      <c r="P9" s="528" t="s">
+        <v>197</v>
       </c>
       <c r="Q9" s="534"/>
       <c r="R9" s="534"/>
@@ -29663,81 +29708,81 @@
       <c r="BM9" s="579"/>
       <c r="BN9" s="580"/>
     </row>
-    <row r="10" customHeight="1" ht="12">
+    <row r="10">
       <c r="A10" s="475">
         <v>3</v>
       </c>
       <c r="B10" s="565" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="530"/>
-      <c r="D10" s="530"/>
-      <c r="E10" s="530"/>
-      <c r="F10" s="530"/>
-      <c r="G10" s="530"/>
-      <c r="H10" s="530"/>
-      <c r="I10" s="530"/>
-      <c r="J10" s="530"/>
-      <c r="K10" s="530"/>
-      <c r="L10" s="530"/>
-      <c r="M10" s="530"/>
-      <c r="N10" s="530"/>
+      <c r="C10" s="566"/>
+      <c r="D10" s="566"/>
+      <c r="E10" s="566"/>
+      <c r="F10" s="566"/>
+      <c r="G10" s="566"/>
+      <c r="H10" s="566"/>
+      <c r="I10" s="566"/>
+      <c r="J10" s="566"/>
+      <c r="K10" s="566"/>
+      <c r="L10" s="566"/>
+      <c r="M10" s="566"/>
+      <c r="N10" s="566"/>
       <c r="O10" s="568"/>
-      <c r="P10" s="522" t="s">
-        <v>133</v>
+      <c r="P10" s="391" t="s">
+        <v>191</v>
       </c>
-      <c r="Q10" s="522"/>
-      <c r="R10" s="522"/>
-      <c r="S10" s="522"/>
-      <c r="T10" s="522"/>
-      <c r="U10" s="522"/>
-      <c r="V10" s="522"/>
-      <c r="W10" s="522"/>
-      <c r="X10" s="522"/>
-      <c r="Y10" s="522"/>
-      <c r="Z10" s="522"/>
-      <c r="AA10" s="522"/>
-      <c r="AB10" s="522"/>
-      <c r="AC10" s="522"/>
-      <c r="AD10" s="522"/>
-      <c r="AE10" s="522"/>
-      <c r="AF10" s="522"/>
-      <c r="AG10" s="522"/>
-      <c r="AH10" s="522"/>
-      <c r="AI10" s="522"/>
-      <c r="AJ10" s="522"/>
-      <c r="AK10" s="522"/>
-      <c r="AL10" s="522"/>
-      <c r="AM10" s="522"/>
-      <c r="AN10" s="522"/>
-      <c r="AO10" s="522"/>
-      <c r="AP10" s="522"/>
-      <c r="AQ10" s="522"/>
-      <c r="AR10" s="522"/>
-      <c r="AS10" s="581" t="s">
-        <v>156</v>
+      <c r="Q10" s="392"/>
+      <c r="R10" s="392"/>
+      <c r="S10" s="392"/>
+      <c r="T10" s="392"/>
+      <c r="U10" s="392"/>
+      <c r="V10" s="392"/>
+      <c r="W10" s="392"/>
+      <c r="X10" s="392"/>
+      <c r="Y10" s="392"/>
+      <c r="Z10" s="392"/>
+      <c r="AA10" s="392"/>
+      <c r="AB10" s="392"/>
+      <c r="AC10" s="392"/>
+      <c r="AD10" s="392"/>
+      <c r="AE10" s="392"/>
+      <c r="AF10" s="392"/>
+      <c r="AG10" s="392"/>
+      <c r="AH10" s="392"/>
+      <c r="AI10" s="392"/>
+      <c r="AJ10" s="392"/>
+      <c r="AK10" s="392"/>
+      <c r="AL10" s="392"/>
+      <c r="AM10" s="392"/>
+      <c r="AN10" s="392"/>
+      <c r="AO10" s="392"/>
+      <c r="AP10" s="392"/>
+      <c r="AQ10" s="392"/>
+      <c r="AR10" s="392"/>
+      <c r="AS10" s="585" t="s">
+        <v>189</v>
       </c>
-      <c r="AT10" s="579"/>
-      <c r="AU10" s="579"/>
-      <c r="AV10" s="579"/>
-      <c r="AW10" s="579"/>
-      <c r="AX10" s="579"/>
-      <c r="AY10" s="579"/>
-      <c r="AZ10" s="579"/>
-      <c r="BA10" s="579"/>
-      <c r="BB10" s="579"/>
-      <c r="BC10" s="579"/>
-      <c r="BD10" s="579"/>
-      <c r="BE10" s="579"/>
-      <c r="BF10" s="579"/>
-      <c r="BG10" s="579"/>
-      <c r="BH10" s="579"/>
-      <c r="BI10" s="579"/>
-      <c r="BJ10" s="579"/>
-      <c r="BK10" s="579"/>
-      <c r="BL10" s="579"/>
-      <c r="BM10" s="579"/>
-      <c r="BN10" s="580"/>
+      <c r="AT10" s="586"/>
+      <c r="AU10" s="586"/>
+      <c r="AV10" s="586"/>
+      <c r="AW10" s="586"/>
+      <c r="AX10" s="586"/>
+      <c r="AY10" s="586"/>
+      <c r="AZ10" s="586"/>
+      <c r="BA10" s="586"/>
+      <c r="BB10" s="586"/>
+      <c r="BC10" s="586"/>
+      <c r="BD10" s="586"/>
+      <c r="BE10" s="586"/>
+      <c r="BF10" s="586"/>
+      <c r="BG10" s="586"/>
+      <c r="BH10" s="586"/>
+      <c r="BI10" s="586"/>
+      <c r="BJ10" s="586"/>
+      <c r="BK10" s="586"/>
+      <c r="BL10" s="586"/>
+      <c r="BM10" s="586"/>
+      <c r="BN10" s="587"/>
     </row>
     <row r="11">
       <c r="A11" s="475">
@@ -29746,77 +29791,76 @@
       <c r="B11" s="565" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="530"/>
-      <c r="D11" s="530"/>
-      <c r="E11" s="530"/>
-      <c r="F11" s="530"/>
-      <c r="G11" s="530"/>
-      <c r="H11" s="530"/>
-      <c r="I11" s="530"/>
-      <c r="J11" s="530"/>
-      <c r="K11" s="530"/>
-      <c r="L11" s="530"/>
-      <c r="M11" s="530"/>
-      <c r="N11" s="530"/>
-      <c r="O11" s="568"/>
-      <c r="P11" s="598" t="s">
-        <v>121</v>
+      <c r="C11" s="566"/>
+      <c r="D11" s="566"/>
+      <c r="E11" s="566"/>
+      <c r="F11" s="566"/>
+      <c r="G11" s="566"/>
+      <c r="H11" s="566"/>
+      <c r="I11" s="566"/>
+      <c r="J11" s="566"/>
+      <c r="K11" s="566"/>
+      <c r="L11" s="566"/>
+      <c r="M11" s="566"/>
+      <c r="N11" s="566"/>
+      <c r="O11" s="567"/>
+      <c r="P11" s="518" t="s">
+        <v>190</v>
       </c>
-      <c r="Q11" s="522"/>
-      <c r="R11" s="522"/>
-      <c r="S11" s="522"/>
-      <c r="T11" s="522"/>
-      <c r="U11" s="522"/>
-      <c r="V11" s="522"/>
-      <c r="W11" s="522"/>
-      <c r="X11" s="522"/>
-      <c r="Y11" s="522"/>
-      <c r="Z11" s="522"/>
-      <c r="AA11" s="522"/>
-      <c r="AB11" s="522"/>
-      <c r="AC11" s="522"/>
-      <c r="AD11" s="522"/>
-      <c r="AE11" s="522"/>
-      <c r="AF11" s="522"/>
-      <c r="AG11" s="522"/>
-      <c r="AH11" s="522"/>
-      <c r="AI11" s="522"/>
-      <c r="AJ11" s="522"/>
-      <c r="AK11" s="522"/>
-      <c r="AL11" s="522"/>
-      <c r="AM11" s="522"/>
-      <c r="AN11" s="522"/>
-      <c r="AO11" s="522"/>
-      <c r="AP11" s="522"/>
-      <c r="AQ11" s="522"/>
-      <c r="AR11" s="522"/>
-      <c r="AS11" s="607" t="s">
-        <v>123</v>
+      <c r="Q11" s="519"/>
+      <c r="R11" s="519"/>
+      <c r="S11" s="519"/>
+      <c r="T11" s="519"/>
+      <c r="U11" s="519"/>
+      <c r="V11" s="519"/>
+      <c r="W11" s="519"/>
+      <c r="X11" s="519"/>
+      <c r="Y11" s="519"/>
+      <c r="Z11" s="519"/>
+      <c r="AA11" s="519"/>
+      <c r="AB11" s="519"/>
+      <c r="AC11" s="519"/>
+      <c r="AD11" s="519"/>
+      <c r="AE11" s="519"/>
+      <c r="AF11" s="519"/>
+      <c r="AG11" s="519"/>
+      <c r="AH11" s="519"/>
+      <c r="AI11" s="519"/>
+      <c r="AJ11" s="519"/>
+      <c r="AK11" s="519"/>
+      <c r="AL11" s="519"/>
+      <c r="AM11" s="519"/>
+      <c r="AN11" s="519"/>
+      <c r="AO11" s="519"/>
+      <c r="AP11" s="519"/>
+      <c r="AQ11" s="519"/>
+      <c r="AR11" s="584"/>
+      <c r="AS11" s="595" t="s">
+        <v>192</v>
       </c>
-      <c r="AT11" s="608"/>
-      <c r="AU11" s="608"/>
-      <c r="AV11" s="608"/>
-      <c r="AW11" s="608"/>
-      <c r="AX11" s="608"/>
-      <c r="AY11" s="608"/>
-      <c r="AZ11" s="608"/>
-      <c r="BA11" s="608"/>
-      <c r="BB11" s="608"/>
-      <c r="BC11" s="608"/>
-      <c r="BD11" s="608"/>
-      <c r="BE11" s="608"/>
-      <c r="BF11" s="608"/>
-      <c r="BG11" s="608"/>
-      <c r="BH11" s="608"/>
-      <c r="BI11" s="608"/>
-      <c r="BJ11" s="608"/>
-      <c r="BK11" s="608"/>
-      <c r="BL11" s="608"/>
-      <c r="BM11" s="608"/>
-      <c r="BN11" s="608"/>
-      <c r="BO11" s="609"/>
+      <c r="AT11" s="596"/>
+      <c r="AU11" s="596"/>
+      <c r="AV11" s="596"/>
+      <c r="AW11" s="596"/>
+      <c r="AX11" s="596"/>
+      <c r="AY11" s="596"/>
+      <c r="AZ11" s="596"/>
+      <c r="BA11" s="596"/>
+      <c r="BB11" s="596"/>
+      <c r="BC11" s="596"/>
+      <c r="BD11" s="596"/>
+      <c r="BE11" s="596"/>
+      <c r="BF11" s="596"/>
+      <c r="BG11" s="596"/>
+      <c r="BH11" s="596"/>
+      <c r="BI11" s="596"/>
+      <c r="BJ11" s="596"/>
+      <c r="BK11" s="596"/>
+      <c r="BL11" s="596"/>
+      <c r="BM11" s="596"/>
+      <c r="BN11" s="528"/>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" ht="10">
       <c r="A12" s="475">
         <v>5</v>
       </c>
@@ -29836,368 +29880,216 @@
       <c r="M12" s="566"/>
       <c r="N12" s="566"/>
       <c r="O12" s="568"/>
-      <c r="P12" s="391" t="s">
-        <v>180</v>
+      <c r="P12" s="522" t="s">
+        <v>193</v>
       </c>
-      <c r="Q12" s="392"/>
-      <c r="R12" s="392"/>
-      <c r="S12" s="392"/>
-      <c r="T12" s="392"/>
-      <c r="U12" s="392"/>
-      <c r="V12" s="392"/>
-      <c r="W12" s="392"/>
-      <c r="X12" s="392"/>
-      <c r="Y12" s="392"/>
-      <c r="Z12" s="392"/>
-      <c r="AA12" s="392"/>
-      <c r="AB12" s="392"/>
-      <c r="AC12" s="392"/>
-      <c r="AD12" s="392"/>
-      <c r="AE12" s="392"/>
-      <c r="AF12" s="392"/>
-      <c r="AG12" s="392"/>
-      <c r="AH12" s="392"/>
-      <c r="AI12" s="392"/>
-      <c r="AJ12" s="392"/>
-      <c r="AK12" s="392"/>
-      <c r="AL12" s="392"/>
-      <c r="AM12" s="392"/>
-      <c r="AN12" s="392"/>
-      <c r="AO12" s="392"/>
-      <c r="AP12" s="392"/>
-      <c r="AQ12" s="392"/>
-      <c r="AR12" s="392"/>
-      <c r="AS12" s="585" t="s">
-        <v>179</v>
+      <c r="Q12" s="522"/>
+      <c r="R12" s="522"/>
+      <c r="S12" s="522"/>
+      <c r="T12" s="522"/>
+      <c r="U12" s="522"/>
+      <c r="V12" s="522"/>
+      <c r="W12" s="522"/>
+      <c r="X12" s="522"/>
+      <c r="Y12" s="522"/>
+      <c r="Z12" s="522"/>
+      <c r="AA12" s="522"/>
+      <c r="AB12" s="522"/>
+      <c r="AC12" s="522"/>
+      <c r="AD12" s="522"/>
+      <c r="AE12" s="522"/>
+      <c r="AF12" s="522"/>
+      <c r="AG12" s="522"/>
+      <c r="AH12" s="522"/>
+      <c r="AI12" s="522"/>
+      <c r="AJ12" s="522"/>
+      <c r="AK12" s="522"/>
+      <c r="AL12" s="522"/>
+      <c r="AM12" s="522"/>
+      <c r="AN12" s="522"/>
+      <c r="AO12" s="522"/>
+      <c r="AP12" s="522"/>
+      <c r="AQ12" s="522"/>
+      <c r="AR12" s="522"/>
+      <c r="AS12" s="588" t="s">
+        <v>157</v>
       </c>
-      <c r="AT12" s="586"/>
-      <c r="AU12" s="586"/>
-      <c r="AV12" s="586"/>
-      <c r="AW12" s="586"/>
-      <c r="AX12" s="586"/>
-      <c r="AY12" s="586"/>
-      <c r="AZ12" s="586"/>
-      <c r="BA12" s="586"/>
-      <c r="BB12" s="586"/>
-      <c r="BC12" s="586"/>
-      <c r="BD12" s="586"/>
-      <c r="BE12" s="586"/>
-      <c r="BF12" s="586"/>
-      <c r="BG12" s="586"/>
-      <c r="BH12" s="586"/>
-      <c r="BI12" s="586"/>
-      <c r="BJ12" s="586"/>
-      <c r="BK12" s="586"/>
-      <c r="BL12" s="586"/>
-      <c r="BM12" s="586"/>
-      <c r="BN12" s="587"/>
+      <c r="AT12" s="589"/>
+      <c r="AU12" s="589"/>
+      <c r="AV12" s="589"/>
+      <c r="AW12" s="589"/>
+      <c r="AX12" s="589"/>
+      <c r="AY12" s="589"/>
+      <c r="AZ12" s="589"/>
+      <c r="BA12" s="589"/>
+      <c r="BB12" s="589"/>
+      <c r="BC12" s="589"/>
+      <c r="BD12" s="589"/>
+      <c r="BE12" s="589"/>
+      <c r="BF12" s="589"/>
+      <c r="BG12" s="589"/>
+      <c r="BH12" s="589"/>
+      <c r="BI12" s="589"/>
+      <c r="BJ12" s="589"/>
+      <c r="BK12" s="589"/>
+      <c r="BL12" s="589"/>
+      <c r="BM12" s="589"/>
+      <c r="BN12" s="590"/>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" ht="15">
       <c r="A13" s="475">
         <v>6</v>
       </c>
-      <c r="B13" s="565" t="s">
+      <c r="B13" s="572" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="566"/>
-      <c r="D13" s="566"/>
-      <c r="E13" s="566"/>
-      <c r="F13" s="566"/>
-      <c r="G13" s="566"/>
-      <c r="H13" s="566"/>
-      <c r="I13" s="566"/>
-      <c r="J13" s="566"/>
-      <c r="K13" s="566"/>
-      <c r="L13" s="566"/>
-      <c r="M13" s="566"/>
-      <c r="N13" s="566"/>
-      <c r="O13" s="567"/>
-      <c r="P13" s="518" t="s">
-        <v>181</v>
+      <c r="C13" s="573"/>
+      <c r="D13" s="573"/>
+      <c r="E13" s="573"/>
+      <c r="F13" s="573"/>
+      <c r="G13" s="573"/>
+      <c r="H13" s="573"/>
+      <c r="I13" s="573"/>
+      <c r="J13" s="573"/>
+      <c r="K13" s="573"/>
+      <c r="L13" s="573"/>
+      <c r="M13" s="573"/>
+      <c r="N13" s="573"/>
+      <c r="O13" s="574"/>
+      <c r="P13" s="514" t="s">
+        <v>185</v>
       </c>
-      <c r="Q13" s="519"/>
-      <c r="R13" s="519"/>
-      <c r="S13" s="519"/>
-      <c r="T13" s="519"/>
-      <c r="U13" s="519"/>
-      <c r="V13" s="519"/>
-      <c r="W13" s="519"/>
-      <c r="X13" s="519"/>
-      <c r="Y13" s="519"/>
-      <c r="Z13" s="519"/>
-      <c r="AA13" s="519"/>
-      <c r="AB13" s="519"/>
-      <c r="AC13" s="519"/>
-      <c r="AD13" s="519"/>
-      <c r="AE13" s="519"/>
-      <c r="AF13" s="519"/>
-      <c r="AG13" s="519"/>
-      <c r="AH13" s="519"/>
-      <c r="AI13" s="519"/>
-      <c r="AJ13" s="519"/>
-      <c r="AK13" s="519"/>
-      <c r="AL13" s="519"/>
-      <c r="AM13" s="519"/>
-      <c r="AN13" s="519"/>
-      <c r="AO13" s="519"/>
-      <c r="AP13" s="519"/>
-      <c r="AQ13" s="519"/>
-      <c r="AR13" s="584"/>
-      <c r="AS13" s="595" t="s">
-        <v>182</v>
+      <c r="Q13" s="514"/>
+      <c r="R13" s="514"/>
+      <c r="S13" s="514"/>
+      <c r="T13" s="514"/>
+      <c r="U13" s="514"/>
+      <c r="V13" s="514"/>
+      <c r="W13" s="514"/>
+      <c r="X13" s="514"/>
+      <c r="Y13" s="514"/>
+      <c r="Z13" s="514"/>
+      <c r="AA13" s="514"/>
+      <c r="AB13" s="514"/>
+      <c r="AC13" s="514"/>
+      <c r="AD13" s="514"/>
+      <c r="AE13" s="514"/>
+      <c r="AF13" s="514"/>
+      <c r="AG13" s="514"/>
+      <c r="AH13" s="514"/>
+      <c r="AI13" s="514"/>
+      <c r="AJ13" s="514"/>
+      <c r="AK13" s="514"/>
+      <c r="AL13" s="514"/>
+      <c r="AM13" s="514"/>
+      <c r="AN13" s="514"/>
+      <c r="AO13" s="514"/>
+      <c r="AP13" s="514"/>
+      <c r="AQ13" s="514"/>
+      <c r="AR13" s="514"/>
+      <c r="AS13" s="581" t="s">
+        <v>194</v>
       </c>
-      <c r="AT13" s="596"/>
-      <c r="AU13" s="596"/>
-      <c r="AV13" s="596"/>
-      <c r="AW13" s="596"/>
-      <c r="AX13" s="596"/>
-      <c r="AY13" s="596"/>
-      <c r="AZ13" s="596"/>
-      <c r="BA13" s="596"/>
-      <c r="BB13" s="596"/>
-      <c r="BC13" s="596"/>
-      <c r="BD13" s="596"/>
-      <c r="BE13" s="596"/>
-      <c r="BF13" s="596"/>
-      <c r="BG13" s="596"/>
-      <c r="BH13" s="596"/>
-      <c r="BI13" s="596"/>
-      <c r="BJ13" s="596"/>
-      <c r="BK13" s="596"/>
-      <c r="BL13" s="596"/>
-      <c r="BM13" s="596"/>
-      <c r="BN13" s="528"/>
+      <c r="AT13" s="579"/>
+      <c r="AU13" s="579"/>
+      <c r="AV13" s="579"/>
+      <c r="AW13" s="579"/>
+      <c r="AX13" s="579"/>
+      <c r="AY13" s="579"/>
+      <c r="AZ13" s="579"/>
+      <c r="BA13" s="579"/>
+      <c r="BB13" s="579"/>
+      <c r="BC13" s="579"/>
+      <c r="BD13" s="579"/>
+      <c r="BE13" s="579"/>
+      <c r="BF13" s="579"/>
+      <c r="BG13" s="579"/>
+      <c r="BH13" s="579"/>
+      <c r="BI13" s="579"/>
+      <c r="BJ13" s="579"/>
+      <c r="BK13" s="579"/>
+      <c r="BL13" s="579"/>
+      <c r="BM13" s="579"/>
+      <c r="BN13" s="580"/>
     </row>
-    <row r="14" customHeight="1" ht="10">
-      <c r="A14" s="475">
+    <row r="14">
+      <c r="A14" s="488">
         <v>7</v>
       </c>
-      <c r="B14" s="565" t="s">
+      <c r="B14" s="569" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="566"/>
-      <c r="D14" s="566"/>
-      <c r="E14" s="566"/>
-      <c r="F14" s="566"/>
-      <c r="G14" s="566"/>
-      <c r="H14" s="566"/>
-      <c r="I14" s="566"/>
-      <c r="J14" s="566"/>
-      <c r="K14" s="566"/>
-      <c r="L14" s="566"/>
-      <c r="M14" s="566"/>
-      <c r="N14" s="566"/>
-      <c r="O14" s="568"/>
-      <c r="P14" s="522" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="522"/>
-      <c r="R14" s="522"/>
-      <c r="S14" s="522"/>
-      <c r="T14" s="522"/>
-      <c r="U14" s="522"/>
-      <c r="V14" s="522"/>
-      <c r="W14" s="522"/>
-      <c r="X14" s="522"/>
-      <c r="Y14" s="522"/>
-      <c r="Z14" s="522"/>
-      <c r="AA14" s="522"/>
-      <c r="AB14" s="522"/>
-      <c r="AC14" s="522"/>
-      <c r="AD14" s="522"/>
-      <c r="AE14" s="522"/>
-      <c r="AF14" s="522"/>
-      <c r="AG14" s="522"/>
-      <c r="AH14" s="522"/>
-      <c r="AI14" s="522"/>
-      <c r="AJ14" s="522"/>
-      <c r="AK14" s="522"/>
-      <c r="AL14" s="522"/>
-      <c r="AM14" s="522"/>
-      <c r="AN14" s="522"/>
-      <c r="AO14" s="522"/>
-      <c r="AP14" s="522"/>
-      <c r="AQ14" s="522"/>
-      <c r="AR14" s="522"/>
-      <c r="AS14" s="588" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT14" s="589"/>
-      <c r="AU14" s="589"/>
-      <c r="AV14" s="589"/>
-      <c r="AW14" s="589"/>
-      <c r="AX14" s="589"/>
-      <c r="AY14" s="589"/>
-      <c r="AZ14" s="589"/>
-      <c r="BA14" s="589"/>
-      <c r="BB14" s="589"/>
-      <c r="BC14" s="589"/>
-      <c r="BD14" s="589"/>
-      <c r="BE14" s="589"/>
-      <c r="BF14" s="589"/>
-      <c r="BG14" s="589"/>
-      <c r="BH14" s="589"/>
-      <c r="BI14" s="589"/>
-      <c r="BJ14" s="589"/>
-      <c r="BK14" s="589"/>
-      <c r="BL14" s="589"/>
-      <c r="BM14" s="589"/>
-      <c r="BN14" s="590"/>
-    </row>
-    <row r="15" customHeight="1" ht="15">
-      <c r="A15" s="475">
-        <v>8</v>
-      </c>
-      <c r="B15" s="572" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="573"/>
-      <c r="D15" s="573"/>
-      <c r="E15" s="573"/>
-      <c r="F15" s="573"/>
-      <c r="G15" s="573"/>
-      <c r="H15" s="573"/>
-      <c r="I15" s="573"/>
-      <c r="J15" s="573"/>
-      <c r="K15" s="573"/>
-      <c r="L15" s="573"/>
-      <c r="M15" s="573"/>
-      <c r="N15" s="573"/>
-      <c r="O15" s="574"/>
-      <c r="P15" s="514" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q15" s="514"/>
-      <c r="R15" s="514"/>
-      <c r="S15" s="514"/>
-      <c r="T15" s="514"/>
-      <c r="U15" s="514"/>
-      <c r="V15" s="514"/>
-      <c r="W15" s="514"/>
-      <c r="X15" s="514"/>
-      <c r="Y15" s="514"/>
-      <c r="Z15" s="514"/>
-      <c r="AA15" s="514"/>
-      <c r="AB15" s="514"/>
-      <c r="AC15" s="514"/>
-      <c r="AD15" s="514"/>
-      <c r="AE15" s="514"/>
-      <c r="AF15" s="514"/>
-      <c r="AG15" s="514"/>
-      <c r="AH15" s="514"/>
-      <c r="AI15" s="514"/>
-      <c r="AJ15" s="514"/>
-      <c r="AK15" s="514"/>
-      <c r="AL15" s="514"/>
-      <c r="AM15" s="514"/>
-      <c r="AN15" s="514"/>
-      <c r="AO15" s="514"/>
-      <c r="AP15" s="514"/>
-      <c r="AQ15" s="514"/>
-      <c r="AR15" s="514"/>
-      <c r="AS15" s="581" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT15" s="579"/>
-      <c r="AU15" s="579"/>
-      <c r="AV15" s="579"/>
-      <c r="AW15" s="579"/>
-      <c r="AX15" s="579"/>
-      <c r="AY15" s="579"/>
-      <c r="AZ15" s="579"/>
-      <c r="BA15" s="579"/>
-      <c r="BB15" s="579"/>
-      <c r="BC15" s="579"/>
-      <c r="BD15" s="579"/>
-      <c r="BE15" s="579"/>
-      <c r="BF15" s="579"/>
-      <c r="BG15" s="579"/>
-      <c r="BH15" s="579"/>
-      <c r="BI15" s="579"/>
-      <c r="BJ15" s="579"/>
-      <c r="BK15" s="579"/>
-      <c r="BL15" s="579"/>
-      <c r="BM15" s="579"/>
-      <c r="BN15" s="580"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="488">
-        <v>9</v>
-      </c>
-      <c r="B16" s="569" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="570"/>
-      <c r="D16" s="570"/>
-      <c r="E16" s="570"/>
-      <c r="F16" s="570"/>
-      <c r="G16" s="570"/>
-      <c r="H16" s="570"/>
-      <c r="I16" s="570"/>
-      <c r="J16" s="570"/>
-      <c r="K16" s="570"/>
-      <c r="L16" s="570"/>
-      <c r="M16" s="570"/>
-      <c r="N16" s="570"/>
-      <c r="O16" s="563"/>
-      <c r="P16" s="518" t="s">
+      <c r="C14" s="570"/>
+      <c r="D14" s="570"/>
+      <c r="E14" s="570"/>
+      <c r="F14" s="570"/>
+      <c r="G14" s="570"/>
+      <c r="H14" s="570"/>
+      <c r="I14" s="570"/>
+      <c r="J14" s="570"/>
+      <c r="K14" s="570"/>
+      <c r="L14" s="570"/>
+      <c r="M14" s="570"/>
+      <c r="N14" s="570"/>
+      <c r="O14" s="563"/>
+      <c r="P14" s="518" t="s">
         <v>186</v>
       </c>
-      <c r="Q16" s="519"/>
-      <c r="R16" s="519"/>
-      <c r="S16" s="519"/>
-      <c r="T16" s="519"/>
-      <c r="U16" s="519"/>
-      <c r="V16" s="519"/>
-      <c r="W16" s="519"/>
-      <c r="X16" s="519"/>
-      <c r="Y16" s="519"/>
-      <c r="Z16" s="519"/>
-      <c r="AA16" s="519"/>
-      <c r="AB16" s="519"/>
-      <c r="AC16" s="519"/>
-      <c r="AD16" s="519"/>
-      <c r="AE16" s="519"/>
-      <c r="AF16" s="519"/>
-      <c r="AG16" s="519"/>
-      <c r="AH16" s="519"/>
-      <c r="AI16" s="519"/>
-      <c r="AJ16" s="519"/>
-      <c r="AK16" s="519"/>
-      <c r="AL16" s="519"/>
-      <c r="AM16" s="519"/>
-      <c r="AN16" s="519"/>
-      <c r="AO16" s="519"/>
-      <c r="AP16" s="519"/>
-      <c r="AQ16" s="519"/>
-      <c r="AR16" s="520"/>
-      <c r="AS16" s="578" t="s">
-        <v>168</v>
+      <c r="Q14" s="519"/>
+      <c r="R14" s="519"/>
+      <c r="S14" s="519"/>
+      <c r="T14" s="519"/>
+      <c r="U14" s="519"/>
+      <c r="V14" s="519"/>
+      <c r="W14" s="519"/>
+      <c r="X14" s="519"/>
+      <c r="Y14" s="519"/>
+      <c r="Z14" s="519"/>
+      <c r="AA14" s="519"/>
+      <c r="AB14" s="519"/>
+      <c r="AC14" s="519"/>
+      <c r="AD14" s="519"/>
+      <c r="AE14" s="519"/>
+      <c r="AF14" s="519"/>
+      <c r="AG14" s="519"/>
+      <c r="AH14" s="519"/>
+      <c r="AI14" s="519"/>
+      <c r="AJ14" s="519"/>
+      <c r="AK14" s="519"/>
+      <c r="AL14" s="519"/>
+      <c r="AM14" s="519"/>
+      <c r="AN14" s="519"/>
+      <c r="AO14" s="519"/>
+      <c r="AP14" s="519"/>
+      <c r="AQ14" s="519"/>
+      <c r="AR14" s="520"/>
+      <c r="AS14" s="578" t="s">
+        <v>199</v>
       </c>
-      <c r="AT16" s="579"/>
-      <c r="AU16" s="579"/>
-      <c r="AV16" s="579"/>
-      <c r="AW16" s="579"/>
-      <c r="AX16" s="579"/>
-      <c r="AY16" s="579"/>
-      <c r="AZ16" s="579"/>
-      <c r="BA16" s="579"/>
-      <c r="BB16" s="579"/>
-      <c r="BC16" s="579"/>
-      <c r="BD16" s="579"/>
-      <c r="BE16" s="579"/>
-      <c r="BF16" s="579"/>
-      <c r="BG16" s="579"/>
-      <c r="BH16" s="579"/>
-      <c r="BI16" s="579"/>
-      <c r="BJ16" s="579"/>
-      <c r="BK16" s="579"/>
-      <c r="BL16" s="579"/>
-      <c r="BM16" s="579"/>
-      <c r="BN16" s="580"/>
+      <c r="AT14" s="579"/>
+      <c r="AU14" s="579"/>
+      <c r="AV14" s="579"/>
+      <c r="AW14" s="579"/>
+      <c r="AX14" s="579"/>
+      <c r="AY14" s="579"/>
+      <c r="AZ14" s="579"/>
+      <c r="BA14" s="579"/>
+      <c r="BB14" s="579"/>
+      <c r="BC14" s="579"/>
+      <c r="BD14" s="579"/>
+      <c r="BE14" s="579"/>
+      <c r="BF14" s="579"/>
+      <c r="BG14" s="579"/>
+      <c r="BH14" s="579"/>
+      <c r="BI14" s="579"/>
+      <c r="BJ14" s="579"/>
+      <c r="BK14" s="579"/>
+      <c r="BL14" s="579"/>
+      <c r="BM14" s="579"/>
+      <c r="BN14" s="580"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="38">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -30225,23 +30117,17 @@
     <mergeCell ref="P9:AR9"/>
     <mergeCell ref="AS9:BN9"/>
     <mergeCell ref="B10:O10"/>
-    <mergeCell ref="P10:AR10"/>
     <mergeCell ref="AS10:BN10"/>
     <mergeCell ref="B11:O11"/>
-    <mergeCell ref="P11:AR11"/>
-    <mergeCell ref="AS11:BO11"/>
+    <mergeCell ref="AS11:BN11"/>
     <mergeCell ref="B12:O12"/>
+    <mergeCell ref="P12:AR12"/>
     <mergeCell ref="AS12:BN12"/>
     <mergeCell ref="B13:O13"/>
+    <mergeCell ref="P13:AR13"/>
     <mergeCell ref="AS13:BN13"/>
     <mergeCell ref="B14:O14"/>
-    <mergeCell ref="P14:AR14"/>
     <mergeCell ref="AS14:BN14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="P15:AR15"/>
-    <mergeCell ref="AS15:BN15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="AS16:BN16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
